--- a/evaluation31_31_ed.xlsx
+++ b/evaluation31_31_ed.xlsx
@@ -33,6 +33,20 @@
     <sheet name="data34" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="data180" sheetId="25" state="visible" r:id="rId25"/>
     <sheet name="data125" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="data135" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="data2" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="data67" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="data56" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="data29" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="data51" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="data100" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="data120" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="data3" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="data124" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="data75" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="data98" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="data65" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="data48" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3389,6 +3403,471 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>146395</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6842011623769423</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5373544480670703</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6019513722216425</v>
+      </c>
+      <c r="E3" t="n">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3895086198949018</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5434083601286174</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4537643647298893</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23325</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.856503338662654</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.856503338662654</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.856503338662654</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.856503338662654</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6912365940906148</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6935876027318959</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.685238578983844</v>
+      </c>
+      <c r="E6" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8692743650499128</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.856503338662654</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8597143126611587</v>
+      </c>
+      <c r="E7" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5822430409734561</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5575376366261084</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5696225868471648</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19396</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4408756270766825</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4658543301665978</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4530209205020921</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8744930875576037</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8744930875576037</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8744930875576037</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8744930875576037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6743728893500464</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6744639889309022</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6742145024497525</v>
+      </c>
+      <c r="E6" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8753866772783183</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8744930875576037</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8748616097212059</v>
+      </c>
+      <c r="E7" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>161627</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.663805270829959</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.699817050859861</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6813356449046477</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40995</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3801752795406467</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3418787933689646</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3600114471048364</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8805696484201158</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8805696484201158</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8805696484201158</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8805696484201158</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6813268501235351</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6805652814096086</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.680449030669828</v>
+      </c>
+      <c r="E6" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8777623805045508</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8805696484201158</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.878979472594778</v>
+      </c>
+      <c r="E7" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3537,6 +4016,1556 @@
       </c>
       <c r="E7" t="n">
         <v>201740</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>153803</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5203887597718149</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5356510392394445</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5279096114394194</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4886060357216178</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4733178654292343</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.48084046063708</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8573464100666173</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8573464100666173</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8573464100666173</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8573464100666173</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6696649318311442</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6696563015562264</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6695833573588331</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8572076106055543</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8573464100666173</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8572436313879594</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9998956495342175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9999478220447118</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105414</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5838944494995451</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.479327731092437</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5264690800943495</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26775</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3697429642679677</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4722751139576482</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4147663930272626</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8455189941144997</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8455189941144997</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8455189941144997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8455189941144997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6512124712558376</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6504994981947675</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6470610983887747</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8524330470778388</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8455189941144997</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8473316324913251</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999871729091842</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9999935864134581</v>
+      </c>
+      <c r="E2" t="n">
+        <v>155920</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5266737667618725</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7236115729963418</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6096324106242295</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30070</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5609150464919695</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3519058667550547</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4324819748258585</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8710862324204293</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8710862324204293</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8710862324204293</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8710862324204293</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6958629377512806</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6918348708868601</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6807026572878487</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8728714244966331</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8710862324204293</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8664814385712116</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>84143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6173394585084547</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5515675486857043</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5826030808965963</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22902</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3439795592462472</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4074914869466515</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3730516106685141</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8494927656743722</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8494927656743722</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8494927656743722</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8494927656743722</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.653773005918234</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6530196785441186</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6518848971883701</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8550390666406102</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8494927656743722</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8516185996480814</v>
+      </c>
+      <c r="E7" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999926562924558</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9999963281327454</v>
+      </c>
+      <c r="E2" t="n">
+        <v>136171</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6202188875098725</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5826179120296767</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6008306918788939</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4594000960944471</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4985660546016611</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4781824352081733</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8544730025901573</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8544730025901573</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8544730025901573</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8544730025901573</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6932063278681065</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6937255409745978</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6930031517399375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8563084976821199</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8544730025901573</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8551731944240774</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9997947144369773</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9998973466818666</v>
+      </c>
+      <c r="E2" t="n">
+        <v>92554</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6058528997131885</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5390570934256055</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5705065116385525</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3758628758628759</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4423103400798568</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4063883617963315</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8557834101382489</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8557834101382489</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8557834101382489</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8557834101382489</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6605719251920215</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6603873826474799</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6589307400389168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8603771365295932</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8557834101382489</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8574332328519995</v>
+      </c>
+      <c r="E7" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>123505</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5904068984101321</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5037746694769113</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5436612146150824</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26095</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.470799787486207</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5581395348837209</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5107628189496554</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8703653665413534</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8703653665413534</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8703653665413534</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8703653665413534</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6870688952987797</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6873047347868774</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6848080111882459</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8730555429260322</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8703653665413534</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8707353382195809</v>
+      </c>
+      <c r="E7" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137139</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5705179948228352</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5440044588353946</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5569458596562734</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4008160703075958</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.426884076811648</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.413439574077738</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26923</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8383513433131754</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8383513433131754</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8383513433131754</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8383513433131754</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.657111355043477</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6569628452156809</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6567951445780039</v>
+      </c>
+      <c r="E6" t="n">
+        <v>201740</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8398242692070298</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8383513433131754</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8389741238873006</v>
+      </c>
+      <c r="E7" t="n">
+        <v>201740</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999883645164293</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9999941822243683</v>
+      </c>
+      <c r="E2" t="n">
+        <v>85944</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5859488310030748</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4786503009336051</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5268923783191612</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3558548009367681</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4599318955732122</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4012543323980855</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8491684683186429</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8491684683186429</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8491684683186429</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8491684683186429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6472678773132811</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6461901870077488</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6427136309805384</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8565668341707573</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8491684683186429</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8511893570151707</v>
+      </c>
+      <c r="E7" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>156933</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6686291000841043</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5046072358773447</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5751528002993638</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3200144204770775</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4824712383368059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3847987862148689</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8484201157098353</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8484201157098353</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8484201157098353</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8484201157098353</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6628811735203939</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6623594914047169</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6533171955047442</v>
+      </c>
+      <c r="E6" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8658089600758146</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8484201157098353</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8531675295724499</v>
+      </c>
+      <c r="E7" t="n">
+        <v>224700</v>
       </c>
     </row>
   </sheetData>
@@ -3699,6 +5728,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137592</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.585175834084761</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4774292272379495</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5258398560941222</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33982</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3467240554758489</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4503966357641212</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3918185786443285</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8480051948051948</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8480051948051948</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8480051948051948</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8480051948051948</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6439666298535366</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6426086210006902</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6392194782461502</v>
+      </c>
+      <c r="E6" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8557558066428882</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8480051948051948</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8501833016441646</v>
+      </c>
+      <c r="E7" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
